--- a/public/AntalPriceData2025.xlsx
+++ b/public/AntalPriceData2025.xlsx
@@ -10,7 +10,7 @@
     <sheet name="RRP 2025" sheetId="1" r:id="rId1"/>
     <sheet name="ON REQUEST" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcCompleted="0" calcOnSave="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -9322,10 +9322,10 @@
   </sheetPr>
   <dimension ref="A1:M1412"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A401" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D417" sqref="D417"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -71454,7 +71454,7 @@
     <firstHeader>&amp;CListino</firstHeader>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="A576:A577 A647:A662 A579 A581:A645 A175:A371 A374:A574 A2:A172 A664:A863 A865:A1407" numberStoredAsText="1"/>
+    <ignoredError sqref="A865:A1407 A664:A863 A2:A172 A374:A574 A175:A371 A581:A645 A579 A647:A662 A576:A577" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
